--- a/tiktok.xlsx
+++ b/tiktok.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Rental_Management_System\Rental Calls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5659E58E-21C7-4FA6-A0E3-D3C94D242EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995FF6B1-81C7-4D1A-A536-D403BC474898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{65DAEC17-3225-453E-9F99-1097FCF21FF1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Details" sheetId="1" r:id="rId1"/>
     <sheet name="Responses" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="107">
   <si>
     <t>Phone</t>
   </si>
@@ -195,6 +195,171 @@
   </si>
   <si>
     <t>Ruiru</t>
+  </si>
+  <si>
+    <t>Kiambu</t>
+  </si>
+  <si>
+    <t>Westcare Properties LTD</t>
+  </si>
+  <si>
+    <t>254rent</t>
+  </si>
+  <si>
+    <t>Scout nrb</t>
+  </si>
+  <si>
+    <t>P.K Homes</t>
+  </si>
+  <si>
+    <t>Nyumbani Homes</t>
+  </si>
+  <si>
+    <t>Melmay properties</t>
+  </si>
+  <si>
+    <t>H Homes</t>
+  </si>
+  <si>
+    <t>Sprucing Realtors</t>
+  </si>
+  <si>
+    <t>Fantom Group Limited</t>
+  </si>
+  <si>
+    <t>Impact Agencies limited</t>
+  </si>
+  <si>
+    <t>Tajiri Homes</t>
+  </si>
+  <si>
+    <t>T &amp; T Properties</t>
+  </si>
+  <si>
+    <t>Skyline Homes</t>
+  </si>
+  <si>
+    <t>MSL Homes</t>
+  </si>
+  <si>
+    <t>Smart Market</t>
+  </si>
+  <si>
+    <t>Uzuri Homes</t>
+  </si>
+  <si>
+    <t>Kiambu Rd Homes</t>
+  </si>
+  <si>
+    <t>Zarina Properties</t>
+  </si>
+  <si>
+    <t>Dimco Limited</t>
+  </si>
+  <si>
+    <t>MelRentals254</t>
+  </si>
+  <si>
+    <t>Kesmart Homes</t>
+  </si>
+  <si>
+    <t>Roysambu</t>
+  </si>
+  <si>
+    <t>Brook Homes</t>
+  </si>
+  <si>
+    <t>Euty Pelek Properties</t>
+  </si>
+  <si>
+    <t>LandCrest Properties</t>
+  </si>
+  <si>
+    <t>Tranquil Estate</t>
+  </si>
+  <si>
+    <t>BigHouse kenya</t>
+  </si>
+  <si>
+    <t>Qaribu Spaces</t>
+  </si>
+  <si>
+    <t>Og Realtor</t>
+  </si>
+  <si>
+    <t>Shamdin Realty Kenya</t>
+  </si>
+  <si>
+    <t>LM Realtor</t>
+  </si>
+  <si>
+    <t>Ndeto Homes</t>
+  </si>
+  <si>
+    <t>Kilimani</t>
+  </si>
+  <si>
+    <t>Zurafa Properties</t>
+  </si>
+  <si>
+    <t>Musili Homes</t>
+  </si>
+  <si>
+    <t>KW Haven</t>
+  </si>
+  <si>
+    <t>Acurate Homes</t>
+  </si>
+  <si>
+    <t>Sir Patrick Real Estate</t>
+  </si>
+  <si>
+    <t>JB Property</t>
+  </si>
+  <si>
+    <t>Wande</t>
+  </si>
+  <si>
+    <t>Pride Mansion</t>
+  </si>
+  <si>
+    <t>The amara sekani group</t>
+  </si>
+  <si>
+    <t>Urbanhive Homes</t>
+  </si>
+  <si>
+    <t>LaReign Homes</t>
+  </si>
+  <si>
+    <t>F&amp;A Homes</t>
+  </si>
+  <si>
+    <t>Sawa Modern homes</t>
+  </si>
+  <si>
+    <t>Azipa Realty</t>
+  </si>
+  <si>
+    <t>Jay Homes</t>
+  </si>
+  <si>
+    <t>Marco Homes</t>
+  </si>
+  <si>
+    <t>Mira Haus Real Estate</t>
+  </si>
+  <si>
+    <t>Kheedz Estate</t>
+  </si>
+  <si>
+    <t>Bribe luxury homes</t>
+  </si>
+  <si>
+    <t>Apex Homes</t>
+  </si>
+  <si>
+    <t>Kinetic Property Ke</t>
   </si>
 </sst>
 </file>
@@ -598,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BED126-51F7-484F-9497-77BE2490CF91}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,7 +815,7 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1083,7 +1248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -1097,7 +1262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -1111,7 +1276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -1122,7 +1287,7 @@
         <v>45945</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -1134,6 +1299,748 @@
       </c>
       <c r="E36" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="2">
+        <v>254796089810</v>
+      </c>
+      <c r="C39" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="2">
+        <v>254703922274</v>
+      </c>
+      <c r="C40" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="2">
+        <v>254743724219</v>
+      </c>
+      <c r="C41" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="2">
+        <v>254769212740</v>
+      </c>
+      <c r="C42" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="2">
+        <v>254113209091</v>
+      </c>
+      <c r="C43" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="2">
+        <v>254713795174</v>
+      </c>
+      <c r="C44" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="2">
+        <v>254741185682</v>
+      </c>
+      <c r="C45" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2022400187</v>
+      </c>
+      <c r="C46" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="2">
+        <v>254717422422</v>
+      </c>
+      <c r="C47" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="2">
+        <v>254759298053</v>
+      </c>
+      <c r="C48" s="4">
+        <v>45983</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="2">
+        <v>254726008316</v>
+      </c>
+      <c r="C49" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="2">
+        <v>254724838773</v>
+      </c>
+      <c r="C50" s="4">
+        <v>45983</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="2">
+        <v>254791881086</v>
+      </c>
+      <c r="C51" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="2">
+        <v>254720791779</v>
+      </c>
+      <c r="C52" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="2">
+        <v>254743563503</v>
+      </c>
+      <c r="C53" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="2">
+        <v>254768515094</v>
+      </c>
+      <c r="C54" s="4">
+        <v>45983</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="2">
+        <v>254703479751</v>
+      </c>
+      <c r="C55" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="2">
+        <v>254748353126</v>
+      </c>
+      <c r="C56" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="2">
+        <v>254704386002</v>
+      </c>
+      <c r="C57" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="2">
+        <v>254768515094</v>
+      </c>
+      <c r="C58" s="4">
+        <v>45983</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="2">
+        <v>254114274578</v>
+      </c>
+      <c r="C59" s="4">
+        <v>45983</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="2">
+        <v>254717669935</v>
+      </c>
+      <c r="C60" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G62" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="2">
+        <v>25474805800</v>
+      </c>
+      <c r="C63" s="4">
+        <v>45983</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64" s="2">
+        <v>254711614099</v>
+      </c>
+      <c r="C64" s="4">
+        <v>45983</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="2">
+        <v>254788394404</v>
+      </c>
+      <c r="C65" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="2">
+        <v>254708501697</v>
+      </c>
+      <c r="C66" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="2">
+        <v>254748338730</v>
+      </c>
+      <c r="C67" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="2">
+        <v>254795087358</v>
+      </c>
+      <c r="C68" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="2">
+        <v>254796342719</v>
+      </c>
+      <c r="C69" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C71" s="4"/>
+      <c r="G71" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="2">
+        <v>254710833210</v>
+      </c>
+      <c r="C72" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" s="2">
+        <v>254788377296</v>
+      </c>
+      <c r="C73" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" s="2">
+        <v>254736096805</v>
+      </c>
+      <c r="C74" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" s="2">
+        <v>254721353753</v>
+      </c>
+      <c r="C75" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" s="2">
+        <v>254758444111</v>
+      </c>
+      <c r="C76" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="2">
+        <v>254737943057</v>
+      </c>
+      <c r="C77" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="2">
+        <v>254114392711</v>
+      </c>
+      <c r="C78" s="4">
+        <v>45983</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="2">
+        <v>254798109193</v>
+      </c>
+      <c r="C79" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="2">
+        <v>254748279599</v>
+      </c>
+      <c r="C80" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="2">
+        <v>254789715560</v>
+      </c>
+      <c r="C81" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" s="2">
+        <v>254712678334</v>
+      </c>
+      <c r="C82" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" s="2">
+        <v>254115527055</v>
+      </c>
+      <c r="C83" s="4">
+        <v>45983</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" s="2">
+        <v>254791827351</v>
+      </c>
+      <c r="C84" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" s="2">
+        <v>254701888903</v>
+      </c>
+      <c r="C85" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" s="2">
+        <v>254758250963</v>
+      </c>
+      <c r="C86" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" s="2">
+        <v>254764675431</v>
+      </c>
+      <c r="C87" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" s="2">
+        <v>254707525018</v>
+      </c>
+      <c r="C88" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" s="2">
+        <v>254742880335</v>
+      </c>
+      <c r="C89" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" s="2">
+        <v>254748882053</v>
+      </c>
+      <c r="C90" s="4">
+        <v>45983</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" s="2">
+        <v>254791478170</v>
+      </c>
+      <c r="C91" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" s="2">
+        <v>254743294466</v>
+      </c>
+      <c r="C92" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" s="2">
+        <v>254758426111</v>
+      </c>
+      <c r="C93" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" s="2">
+        <v>254793647664</v>
+      </c>
+      <c r="C94" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" s="2">
+        <v>254708807184</v>
+      </c>
+      <c r="C95" s="4">
+        <v>45983</v>
+      </c>
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" s="2">
+        <v>254794455283</v>
+      </c>
+      <c r="C96" s="4">
+        <v>45983</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +2092,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E1:E1048576 F1:G1</xm:sqref>
+          <xm:sqref>F1:G1 E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/tiktok.xlsx
+++ b/tiktok.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Rental_Management_System\Rental Calls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995FF6B1-81C7-4D1A-A536-D403BC474898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD56886-2736-44E9-AD3B-5A6A0CFD7553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{65DAEC17-3225-453E-9F99-1097FCF21FF1}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="109">
   <si>
     <t>Phone</t>
   </si>
@@ -360,6 +360,12 @@
   </si>
   <si>
     <t>Kinetic Property Ke</t>
+  </si>
+  <si>
+    <t>27/11/2025</t>
+  </si>
+  <si>
+    <t>Catalog</t>
   </si>
 </sst>
 </file>
@@ -763,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BED126-51F7-484F-9497-77BE2490CF91}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,7 +784,7 @@
     <col min="6" max="6" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -801,7 +807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -819,7 +825,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -836,7 +842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -850,7 +856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -864,7 +870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -878,7 +884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -889,13 +895,13 @@
         <v>45945</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -909,7 +915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -920,10 +926,10 @@
         <v>45945</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="E10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -948,10 +957,10 @@
         <v>45945</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -965,7 +974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -979,7 +988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -990,10 +999,10 @@
         <v>45945</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1004,13 +1013,16 @@
         <v>45945</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1063,7 +1075,7 @@
         <v>45945</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1189,7 +1201,7 @@
         <v>45945</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1231,7 +1243,7 @@
         <v>45945</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1245,7 +1257,7 @@
         <v>45945</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1259,7 +1271,7 @@
         <v>45945</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1272,9 +1284,6 @@
       <c r="C34" s="4">
         <v>45945</v>
       </c>
-      <c r="E34" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -1298,7 +1307,7 @@
         <v>45945</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
